--- a/data/trans_dic/P15D$consultar-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15D$consultar-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 31,02</t>
+          <t>3,66; 28,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 18,15</t>
+          <t>3,99; 17,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 34,27</t>
+          <t>11,6; 34,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,71; 26,94</t>
+          <t>7,09; 28,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 22,47</t>
+          <t>2,6; 22,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 14,26</t>
+          <t>4,12; 14,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 23,27</t>
+          <t>7,21; 23,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,16; 26,24</t>
+          <t>13,22; 26,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 20,65</t>
+          <t>4,49; 19,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 13,35</t>
+          <t>4,77; 12,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,48; 24,39</t>
+          <t>10,37; 24,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,95; 23,75</t>
+          <t>13,32; 24,33</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 24,35</t>
+          <t>6,81; 22,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 10,92</t>
+          <t>3,48; 10,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 17,32</t>
+          <t>5,63; 16,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 15,9</t>
+          <t>3,68; 16,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 34,92</t>
+          <t>7,84; 36,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 15,59</t>
+          <t>4,39; 15,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 16,54</t>
+          <t>3,48; 15,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,11; 24,21</t>
+          <t>9,66; 23,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,69; 23,18</t>
+          <t>9,7; 23,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 10,8</t>
+          <t>4,43; 10,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 14,49</t>
+          <t>6,09; 14,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,73; 17,05</t>
+          <t>7,63; 16,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 35,81</t>
+          <t>3,98; 36,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 39,4</t>
+          <t>7,51; 39,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,86</t>
+          <t>0,0; 21,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,02</t>
+          <t>0,0; 22,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,99</t>
+          <t>0,0; 31,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 25,53</t>
+          <t>3,04; 27,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,61</t>
+          <t>0,0; 19,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,16; 41,49</t>
+          <t>14,78; 41,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 26,56</t>
+          <t>2,89; 26,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 26,08</t>
+          <t>6,64; 25,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 14,22</t>
+          <t>1,5; 13,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 24,52</t>
+          <t>8,67; 24,34</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 20,82</t>
+          <t>8,3; 20,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 11,86</t>
+          <t>5,55; 12,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 17,43</t>
+          <t>8,5; 17,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 13,97</t>
+          <t>5,23; 14,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 21,37</t>
+          <t>6,93; 22,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 12,51</t>
+          <t>5,48; 12,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,09; 15,42</t>
+          <t>6,21; 15,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,52; 23,97</t>
+          <t>14,7; 23,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 17,68</t>
+          <t>9,19; 18,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 11,16</t>
+          <t>6,21; 11,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 14,72</t>
+          <t>8,52; 14,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,1; 17,13</t>
+          <t>11,06; 17,49</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, consultar con un profesional sanitario (fuera de un hospital)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3025</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6737</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9963</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5303</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4521</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9090</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10544</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15321</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7547</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15827</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>20507</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20624</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>920; 7204</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2981; 13326</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5300; 15686</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2523; 10303</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1183; 10448</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4610; 16150</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5380; 17459</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10519; 20990</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3174; 14128</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8899; 23839</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12477; 29768</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15337; 28021</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10525</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11278</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12529</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10637</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6732</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9928</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7069</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16110</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17257</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21206</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19598</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26747</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5350; 17653</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6325; 19781</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6826; 20053</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4781; 20825</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2746; 12732</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4997; 17639</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2950; 13243</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9852; 24417</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11015; 26829</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13109; 31407</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12541; 28938</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17693; 38944</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2820</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5165</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2822</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1862</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8320</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3723</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7987</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3788</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9537</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>773; 7086</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1957; 10388</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6628</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7335</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4144</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>874; 7990</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5970</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4562; 12668</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>942; 8646</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3641; 14007</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>927; 8165</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5555; 15601</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16370</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>23180</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24418</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17157</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12156</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>21840</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19475</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>39751</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>28526</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>45020</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>43893</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>56908</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10210; 25289</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15699; 34373</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16796; 35432</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10399; 27848</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6496; 21166</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13931; 32991</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11817; 28885</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31210; 50503</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19934; 40590</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>33356; 60678</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>33048; 56775</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>45465; 71921</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>